--- a/ProyectoFinal/Alumnos.xlsx
+++ b/ProyectoFinal/Alumnos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Cedula</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>henry.foth.m@gmail.com</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
   </si>
 </sst>
 </file>
@@ -383,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,7 +413,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>909094</v>
+        <v>919094</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -437,52 +431,6 @@
         <v>23546772</v>
       </c>
       <c r="G2" s="1">
-        <v>91320029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>909095</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>23546772</v>
-      </c>
-      <c r="G3" s="1">
-        <v>91320029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>909096</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>23546772</v>
-      </c>
-      <c r="G4" s="1">
         <v>91320029</v>
       </c>
     </row>

--- a/ProyectoFinal/Alumnos.xlsx
+++ b/ProyectoFinal/Alumnos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
   <si>
     <t>Cedula</t>
   </si>
@@ -52,12 +52,75 @@
   </si>
   <si>
     <t>henry.foth.m@gmail.com</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Varcasia</t>
+  </si>
+  <si>
+    <t>esteEsMiEmail@hotmail.com</t>
+  </si>
+  <si>
+    <t>alemartin2014@hotmail.com</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>rperez9594@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Sugo</t>
+  </si>
+  <si>
+    <t>Anibal</t>
+  </si>
+  <si>
+    <t>Conde</t>
+  </si>
+  <si>
+    <t>Tabare</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>Soledad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,9 +157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,16 +443,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -434,6 +503,328 @@
         <v>91320029</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>38072948</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>47261049</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4026973</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>40269737</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>40269737</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>42578920</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44444444</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>47261049</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>5465484</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>55555555</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>58792521</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>65984627</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>7777777</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
